--- a/QC/Sure/Sure Automation/Documents/Order Management/New Service Order/NewServiceOrderBundle.xlsx
+++ b/QC/Sure/Sure Automation/Documents/Order Management/New Service Order/NewServiceOrderBundle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="ProfileOptions" sheetId="5" r:id="rId5"/>
     <sheet name="Privileges" sheetId="6" r:id="rId6"/>
     <sheet name="JobData" sheetId="7" r:id="rId7"/>
+    <sheet name="TestCaseResults" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$D$1:$D$6</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="190">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -383,106 +384,106 @@
     <t>DA-01</t>
   </si>
   <si>
-    <t>btnadd</t>
-  </si>
-  <si>
-    <t>bundlesvcgrid</t>
+    <t>uxBundleCtrl_btnadd</t>
+  </si>
+  <si>
+    <t>uxBundleCtrl_bundlesvcgrid</t>
   </si>
   <si>
     <t>$0.BYINDEX$</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO01$</t>
-  </si>
-  <si>
-    <t>btnupdate</t>
-  </si>
-  <si>
-    <t>btnsave</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO01$</t>
+  </si>
+  <si>
+    <t>uxBundleCtrl_btnupdate</t>
+  </si>
+  <si>
+    <t>uxBundleCtrl_btnsave</t>
   </si>
   <si>
     <t>DA-02</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO02$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO02$</t>
   </si>
   <si>
     <t>DA-03</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO03$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO03$</t>
   </si>
   <si>
     <t>DA-04</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO04$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO04$</t>
   </si>
   <si>
     <t>DA-05</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO05$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO05$</t>
   </si>
   <si>
     <t>DA-06</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO06$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO06$</t>
   </si>
   <si>
     <t>DA-07</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO07$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO07$</t>
   </si>
   <si>
     <t>DA-08</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO08$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO08$</t>
   </si>
   <si>
     <t>DA-09</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO09$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO09$</t>
   </si>
   <si>
     <t>DA-10</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO10$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO10$</t>
   </si>
   <si>
     <t>DA-11</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO11$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO11$</t>
   </si>
   <si>
     <t>DA-12</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO12$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO12$</t>
   </si>
   <si>
     <t>DA-13</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO13$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO13$</t>
   </si>
   <si>
     <t>DA-14</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO14$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO14$</t>
   </si>
   <si>
     <t>DA-15</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO15$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO15$</t>
   </si>
   <si>
     <t>DA-16</t>
@@ -491,19 +492,19 @@
     <t>$0.BYID.svctype.Service Group$</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO16$</t>
+    <t>$1.BYTYPE.TEXT.SRVGRP16$</t>
   </si>
   <si>
     <t>DA-17</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO17$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO17$</t>
   </si>
   <si>
     <t>DA-18</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO18$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO18$</t>
   </si>
   <si>
     <t>$2.BYID.cboptional.YES$</t>
@@ -512,16 +513,16 @@
     <t>$1.BYINDEX$</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO19$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO19$</t>
   </si>
   <si>
     <t>DA-19</t>
   </si>
   <si>
-    <t>$1.BYID.service.SERVNSO20$</t>
-  </si>
-  <si>
-    <t>$1.BYID.service.SERVNSO21$</t>
+    <t>$1.BYTYPE.TEXT.SERVNSO20$</t>
+  </si>
+  <si>
+    <t>$1.BYTYPE.TEXT.SERVNSO21$</t>
   </si>
   <si>
     <t>PageDataNo</t>
@@ -533,19 +534,16 @@
     <t>Page control ID's should be specified</t>
   </si>
   <si>
-    <t>bundlecode</t>
-  </si>
-  <si>
-    <t>bundledescr</t>
-  </si>
-  <si>
-    <t>bundletype</t>
-  </si>
-  <si>
-    <t>bundlecontent</t>
-  </si>
-  <si>
-    <t>usbundlestatus</t>
+    <t>uxBundleCtrl_bundlecode</t>
+  </si>
+  <si>
+    <t>uxBundleCtrl_bundledescr</t>
+  </si>
+  <si>
+    <t>uxBundleCtrl_bundletype</t>
+  </si>
+  <si>
+    <t>uxBundleCtrl_bundlecontent</t>
   </si>
   <si>
     <t>ControlNames</t>
@@ -569,9 +567,6 @@
     <t>TV Channel</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>BUNNSO02</t>
   </si>
   <si>
@@ -660,6 +655,12 @@
   </si>
   <si>
     <t>RowType</t>
+  </si>
+  <si>
+    <t>DateofExecution</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -667,10 +668,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -692,8 +693,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,14 +703,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -722,18 +716,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,16 +731,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,17 +748,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,7 +770,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,15 +815,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,7 +838,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,7 +866,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,175 +1046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,9 +1062,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,7 +1090,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,17 +1110,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,6 +1134,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1136,30 +1157,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,131 +1178,131 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,12 +1337,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1737,10 +1738,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1748,7 +1749,7 @@
     <col min="1" max="1" width="11.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="13.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="22.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="67.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.8571428571429" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
     <col min="6" max="7" width="15.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" customWidth="1"/>
@@ -1800,7 +1801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="3:4">
+    <row r="2" ht="45" spans="3:4">
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="3:4">
+    <row r="3" ht="45" spans="3:4">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="75" spans="3:4">
+    <row r="4" ht="90" spans="3:4">
       <c r="C4" t="s">
         <v>17</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" ht="30" spans="3:4">
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -1840,78 +1841,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10">
-        <v>1000</v>
-      </c>
-    </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>128</v>
@@ -1923,7 +1855,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
         <v>26</v>
@@ -1934,7 +1866,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>128</v>
@@ -1946,7 +1878,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
@@ -1957,7 +1889,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>128</v>
@@ -1969,7 +1901,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
@@ -1980,7 +1912,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>128</v>
@@ -1992,7 +1924,7 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
         <v>26</v>
@@ -2003,7 +1935,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>128</v>
@@ -2015,7 +1947,7 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
         <v>26</v>
@@ -2026,7 +1958,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>128</v>
@@ -2038,7 +1970,7 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
         <v>26</v>
@@ -2049,7 +1981,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>128</v>
@@ -2061,7 +1993,7 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
         <v>26</v>
@@ -2072,7 +2004,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>128</v>
@@ -2084,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
@@ -2095,7 +2027,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>128</v>
@@ -2107,7 +2039,7 @@
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
         <v>26</v>
@@ -2118,7 +2050,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>128</v>
@@ -2130,7 +2062,7 @@
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
         <v>26</v>
@@ -2141,7 +2073,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>128</v>
@@ -2153,7 +2085,7 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
         <v>26</v>
@@ -2164,7 +2096,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>128</v>
@@ -2176,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
@@ -2186,8 +2118,8 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="9" t="s">
-        <v>55</v>
+      <c r="A23" t="s">
+        <v>49</v>
       </c>
       <c r="B23">
         <v>128</v>
@@ -2199,7 +2131,7 @@
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
@@ -2208,9 +2140,32 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:13">
-      <c r="A25" s="9" t="s">
-        <v>57</v>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>53</v>
       </c>
       <c r="B25">
         <v>128</v>
@@ -2222,7 +2177,7 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
         <v>26</v>
@@ -2231,36 +2186,32 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:4">
-      <c r="A26" s="10"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:13">
-      <c r="A27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27">
+    <row r="26" spans="1:13">
+      <c r="A26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
         <v>128</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G27" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" t="s">
         <v>26</v>
       </c>
-      <c r="M27">
+      <c r="M26">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" customFormat="1" spans="1:13">
       <c r="A28" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>128</v>
@@ -2272,7 +2223,7 @@
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
         <v>26</v>
@@ -2281,14 +2232,55 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="9"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="9"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="9"/>
+    <row r="29" customFormat="1" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:13">
+      <c r="A30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>1000</v>
+      </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="9"/>
@@ -2316,66 +2308,6 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="9"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="9"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="9"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="9"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="9"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="9"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="9"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="9"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="9"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="9"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="9"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="9"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="9"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="9"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="9"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2391,10 +2323,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J427"/>
+  <dimension ref="A1:J428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B148" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2440,7 +2372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="3:4">
+    <row r="3" customFormat="1" ht="30" spans="3:4">
       <c r="C3" t="s">
         <v>70</v>
       </c>
@@ -2453,7 +2385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" ht="60" spans="3:4">
+    <row r="5" customFormat="1" ht="60" spans="3:4">
       <c r="C5" t="s">
         <v>73</v>
       </c>
@@ -2461,7 +2393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" ht="75" spans="3:4">
+    <row r="6" customFormat="1" ht="75" spans="3:4">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -2469,7 +2401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" ht="75" spans="3:4">
+    <row r="7" customFormat="1" ht="75" spans="3:4">
       <c r="C7" t="s">
         <v>76</v>
       </c>
@@ -2477,7 +2409,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" ht="75" spans="3:4">
+    <row r="8" customFormat="1" ht="75" spans="3:4">
       <c r="C8" t="s">
         <v>78</v>
       </c>
@@ -2485,7 +2417,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" ht="75" spans="3:4">
+    <row r="9" customFormat="1" ht="75" spans="3:4">
       <c r="C9" t="s">
         <v>80</v>
       </c>
@@ -2493,7 +2425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" customFormat="1" spans="3:4">
       <c r="C10" t="s">
         <v>82</v>
       </c>
@@ -2501,7 +2433,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" ht="135" spans="3:4">
+    <row r="11" customFormat="1" ht="135" spans="3:4">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -2509,7 +2441,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" customFormat="1" spans="3:4">
       <c r="C12" t="s">
         <v>86</v>
       </c>
@@ -2517,7 +2449,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" customFormat="1" spans="3:4">
       <c r="C13" t="s">
         <v>88</v>
       </c>
@@ -2525,7 +2457,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" ht="105" spans="3:4">
+    <row r="14" customFormat="1" ht="105" spans="3:4">
       <c r="C14" t="s">
         <v>90</v>
       </c>
@@ -2533,7 +2465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" ht="105" spans="3:4">
+    <row r="15" customFormat="1" ht="105" spans="3:4">
       <c r="C15" t="s">
         <v>92</v>
       </c>
@@ -2541,7 +2473,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" ht="75" spans="3:4">
+    <row r="16" customFormat="1" ht="75" spans="3:4">
       <c r="C16" t="s">
         <v>94</v>
       </c>
@@ -2549,7 +2481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" customFormat="1" spans="1:6">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2559,11 +2491,12 @@
       <c r="C19" t="s">
         <v>69</v>
       </c>
+      <c r="D19" s="3"/>
       <c r="F19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" customFormat="1" spans="1:5">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2573,6 +2506,7 @@
       <c r="C20" t="s">
         <v>70</v>
       </c>
+      <c r="D20" s="3"/>
       <c r="E20" t="s">
         <v>97</v>
       </c>
@@ -2601,7 +2535,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" customFormat="1" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2611,11 +2545,12 @@
       <c r="C22" t="s">
         <v>70</v>
       </c>
+      <c r="D22" s="3"/>
       <c r="E22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" customFormat="1" spans="1:5">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2625,6 +2560,7 @@
       <c r="C23" t="s">
         <v>70</v>
       </c>
+      <c r="D23" s="3"/>
       <c r="E23" t="s">
         <v>102</v>
       </c>
@@ -2743,7 +2679,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" ht="22" customHeight="1" spans="1:10">
+    <row r="34" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2797,7 +2733,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" customFormat="1" spans="1:6">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2807,11 +2743,12 @@
       <c r="C45" t="s">
         <v>69</v>
       </c>
+      <c r="D45" s="3"/>
       <c r="F45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" customFormat="1" spans="1:5">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2821,6 +2758,7 @@
       <c r="C46" t="s">
         <v>70</v>
       </c>
+      <c r="D46" s="3"/>
       <c r="E46" t="s">
         <v>97</v>
       </c>
@@ -2847,7 +2785,7 @@
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" customFormat="1" spans="1:5">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2857,11 +2795,12 @@
       <c r="C48" t="s">
         <v>70</v>
       </c>
+      <c r="D48" s="3"/>
       <c r="E48" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" customFormat="1" spans="1:5">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2871,6 +2810,7 @@
       <c r="C49" t="s">
         <v>70</v>
       </c>
+      <c r="D49" s="3"/>
       <c r="E49" t="s">
         <v>102</v>
       </c>
@@ -2987,7 +2927,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" customFormat="1" spans="1:8">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -3839,7 +3779,7 @@
         <v>90</v>
       </c>
       <c r="D134" s="5"/>
-      <c r="E134" s="6" t="s">
+      <c r="E134" t="s">
         <v>98</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -3850,7 +3790,7 @@
       </c>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" customFormat="1" spans="1:5">
+    <row r="135" customFormat="1" spans="1:8">
       <c r="A135" t="s">
         <v>56</v>
       </c>
@@ -3860,10 +3800,13 @@
       <c r="C135" t="s">
         <v>70</v>
       </c>
-      <c r="D135" s="3"/>
+      <c r="D135" s="5"/>
       <c r="E135" t="s">
         <v>101</v>
       </c>
+      <c r="F135" s="6"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="6"/>
     </row>
     <row r="136" customFormat="1" spans="1:5">
       <c r="A136" t="s">
@@ -3880,146 +3823,126 @@
         <v>102</v>
       </c>
     </row>
-    <row r="139" customFormat="1" spans="1:6">
-      <c r="A139" t="s">
-        <v>58</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139" t="s">
-        <v>69</v>
-      </c>
-      <c r="D139" s="3"/>
-      <c r="F139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="140" customFormat="1" spans="1:5">
+    <row r="140" customFormat="1" spans="1:6">
       <c r="A140" t="s">
         <v>58</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D140" s="3"/>
-      <c r="E140" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="141" customFormat="1" spans="1:7">
+      <c r="F140" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" customFormat="1" spans="1:5">
       <c r="A141" t="s">
         <v>58</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>90</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" customFormat="1" spans="1:7">
       <c r="A142" t="s">
         <v>58</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>70</v>
-      </c>
-      <c r="E142" t="s">
-        <v>101</v>
-      </c>
-      <c r="H142" s="6"/>
-    </row>
-    <row r="143" customFormat="1" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>58</v>
       </c>
       <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" t="s">
+        <v>101</v>
+      </c>
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" customFormat="1" spans="1:5">
+      <c r="A144" t="s">
+        <v>58</v>
+      </c>
+      <c r="B144">
         <v>5</v>
       </c>
-      <c r="C143" t="s">
-        <v>70</v>
-      </c>
-      <c r="D143" s="3"/>
-      <c r="E143" t="s">
+      <c r="C144" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="146" s="4" customFormat="1" spans="4:4">
-      <c r="D146" s="8"/>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" t="s">
-        <v>60</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147" t="s">
-        <v>69</v>
-      </c>
-      <c r="F147" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+    <row r="147" s="4" customFormat="1" spans="4:4">
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" customFormat="1" spans="1:6">
       <c r="A148" t="s">
         <v>60</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>70</v>
-      </c>
-      <c r="E148" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="F148" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" customFormat="1" spans="1:5">
       <c r="A149" t="s">
         <v>60</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>90</v>
-      </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H149" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>60</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
         <v>90</v>
@@ -4032,7 +3955,7 @@
         <v>99</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H150" s="6"/>
     </row>
@@ -4041,32 +3964,36 @@
         <v>60</v>
       </c>
       <c r="B151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F151" s="6"/>
-      <c r="G151" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" customFormat="1" spans="1:8">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>60</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>70</v>
       </c>
-      <c r="D152" s="3"/>
+      <c r="D152" s="5"/>
       <c r="E152" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="7"/>
@@ -4077,21 +4004,17 @@
         <v>60</v>
       </c>
       <c r="B153">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>90</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>140</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" t="s">
+        <v>97</v>
+      </c>
+      <c r="F153" s="6"/>
+      <c r="G153" s="7"/>
       <c r="H153" s="6"/>
     </row>
     <row r="154" customFormat="1" spans="1:8">
@@ -4099,7 +4022,7 @@
         <v>60</v>
       </c>
       <c r="B154">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>90</v>
@@ -4112,98 +4035,98 @@
         <v>139</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" customFormat="1" spans="1:5">
+    <row r="155" customFormat="1" spans="1:8">
       <c r="A155" t="s">
         <v>60</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>70</v>
-      </c>
-      <c r="D155" s="3"/>
-      <c r="E155" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H155" s="6"/>
     </row>
     <row r="156" customFormat="1" spans="1:5">
       <c r="A156" t="s">
         <v>60</v>
       </c>
       <c r="B156">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
         <v>70</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="157" customFormat="1" spans="1:5">
+      <c r="A157" t="s">
+        <v>60</v>
+      </c>
+      <c r="B157">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>70</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="160" customFormat="1" spans="1:6">
-      <c r="A160" t="s">
-        <v>62</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
-        <v>69</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="F160" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="161" customFormat="1" spans="1:5">
+    <row r="161" customFormat="1" spans="1:6">
       <c r="A161" t="s">
         <v>62</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D161" s="3"/>
-      <c r="E161" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="F161" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" customFormat="1" spans="1:5">
       <c r="A162" t="s">
         <v>62</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>90</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H162" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>62</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" t="s">
         <v>90</v>
@@ -4216,7 +4139,7 @@
         <v>99</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H163" s="6"/>
     </row>
@@ -4225,32 +4148,36 @@
         <v>62</v>
       </c>
       <c r="B164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F164" s="6"/>
-      <c r="G164" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" customFormat="1" spans="1:8">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>62</v>
       </c>
       <c r="B165">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>70</v>
       </c>
-      <c r="D165" s="3"/>
+      <c r="D165" s="5"/>
       <c r="E165" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="7"/>
@@ -4261,21 +4188,17 @@
         <v>62</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>90</v>
-      </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" t="s">
+        <v>97</v>
+      </c>
+      <c r="F166" s="6"/>
+      <c r="G166" s="7"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" customFormat="1" spans="1:8">
@@ -4283,7 +4206,7 @@
         <v>62</v>
       </c>
       <c r="B167">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>90</v>
@@ -4296,53 +4219,64 @@
         <v>139</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" customFormat="1" spans="1:5">
+    <row r="168" customFormat="1" spans="1:8">
       <c r="A168" t="s">
         <v>62</v>
       </c>
       <c r="B168">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>70</v>
-      </c>
-      <c r="D168" s="3"/>
-      <c r="E168" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H168" s="6"/>
     </row>
     <row r="169" customFormat="1" spans="1:5">
       <c r="A169" t="s">
         <v>62</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
         <v>70</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" customFormat="1" spans="1:5">
+      <c r="A170" t="s">
+        <v>62</v>
+      </c>
+      <c r="B170">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>70</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="173" spans="4:4">
-      <c r="D173"/>
-    </row>
-    <row r="174" spans="4:4">
-      <c r="D174"/>
-    </row>
-    <row r="175" spans="4:8">
-      <c r="D175" s="5"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="6"/>
-    </row>
+    <row r="174" customFormat="1"/>
+    <row r="175" customFormat="1"/>
     <row r="176" spans="4:8">
       <c r="D176" s="5"/>
       <c r="E176" s="6"/>
@@ -4358,48 +4292,38 @@
       <c r="H177" s="6"/>
     </row>
     <row r="178" spans="4:8">
-      <c r="D178"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="7"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" customFormat="1" spans="4:8">
-      <c r="D179" s="5"/>
-      <c r="E179" s="6"/>
+    <row r="179" spans="4:8">
+      <c r="D179"/>
       <c r="F179" s="6"/>
       <c r="G179" s="7"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="4:8">
+    <row r="180" customFormat="1" spans="4:8">
       <c r="D180" s="5"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="7"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="4:4">
-      <c r="D181"/>
+    <row r="181" spans="4:8">
+      <c r="D181" s="5"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="6"/>
     </row>
     <row r="182" customFormat="1"/>
-    <row r="183" spans="4:4">
-      <c r="D183"/>
-    </row>
-    <row r="184" spans="4:4">
-      <c r="D184"/>
-    </row>
-    <row r="185" spans="4:4">
-      <c r="D185"/>
-    </row>
-    <row r="186" spans="4:4">
-      <c r="D186"/>
-    </row>
-    <row r="187" spans="4:8">
-      <c r="D187" s="5"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="6"/>
-    </row>
+    <row r="183" customFormat="1"/>
+    <row r="184" customFormat="1"/>
+    <row r="185" customFormat="1"/>
+    <row r="186" customFormat="1"/>
+    <row r="187" customFormat="1"/>
     <row r="188" spans="4:8">
       <c r="D188" s="5"/>
       <c r="E188" s="6"/>
@@ -4407,22 +4331,22 @@
       <c r="G188" s="7"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" customFormat="1" spans="4:8">
+    <row r="189" spans="4:8">
       <c r="D189" s="5"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="7"/>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="4:8">
-      <c r="D190"/>
+    <row r="190" customFormat="1" spans="4:8">
+      <c r="D190" s="5"/>
+      <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="7"/>
       <c r="H190" s="6"/>
     </row>
     <row r="191" spans="4:8">
-      <c r="D191" s="5"/>
-      <c r="E191" s="6"/>
+      <c r="D191"/>
       <c r="F191" s="6"/>
       <c r="G191" s="7"/>
       <c r="H191" s="6"/>
@@ -4434,119 +4358,103 @@
       <c r="G192" s="7"/>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" spans="4:4">
-      <c r="D193"/>
-    </row>
-    <row r="194" spans="4:4">
-      <c r="D194"/>
-    </row>
-    <row r="195" customFormat="1" spans="4:8">
-      <c r="D195" s="5"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="198" spans="4:4">
-      <c r="D198"/>
-    </row>
-    <row r="199" spans="4:4">
-      <c r="D199"/>
-    </row>
-    <row r="200" spans="4:8">
-      <c r="D200" s="5"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="6"/>
-    </row>
-    <row r="201" customFormat="1" spans="4:8">
+    <row r="193" spans="4:8">
+      <c r="D193" s="5"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" customFormat="1"/>
+    <row r="195" customFormat="1"/>
+    <row r="196" customFormat="1" spans="4:8">
+      <c r="D196" s="5"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="199" customFormat="1"/>
+    <row r="200" customFormat="1"/>
+    <row r="201" spans="4:8">
       <c r="D201" s="5"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="7"/>
       <c r="H201" s="6"/>
     </row>
-    <row r="202" spans="4:8">
-      <c r="D202"/>
+    <row r="202" customFormat="1" spans="4:8">
+      <c r="D202" s="5"/>
+      <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="7"/>
       <c r="H202" s="6"/>
     </row>
     <row r="203" spans="4:8">
-      <c r="D203" s="5"/>
-      <c r="E203" s="6"/>
+      <c r="D203"/>
       <c r="F203" s="6"/>
       <c r="G203" s="7"/>
       <c r="H203" s="6"/>
     </row>
-    <row r="204" spans="4:4">
-      <c r="D204"/>
-    </row>
-    <row r="205" spans="4:4">
-      <c r="D205"/>
-    </row>
-    <row r="206" customFormat="1" spans="4:8">
-      <c r="D206" s="5"/>
-      <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="7"/>
-      <c r="H206" s="6"/>
-    </row>
-    <row r="210" spans="4:8">
-      <c r="D210" s="5"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="7"/>
-      <c r="H210" s="6"/>
-    </row>
-    <row r="217" customFormat="1" spans="4:8">
-      <c r="D217" s="5"/>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="6"/>
-    </row>
-    <row r="220" customFormat="1"/>
-    <row r="224" spans="4:8">
-      <c r="D224" s="5"/>
-      <c r="E224" s="6"/>
-      <c r="F224" s="6"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="6"/>
-    </row>
-    <row r="229" spans="4:7">
-      <c r="D229" s="5"/>
-      <c r="E229" s="6"/>
-      <c r="F229" s="6"/>
-      <c r="G229" s="7"/>
-    </row>
-    <row r="232" spans="4:8">
-      <c r="D232" s="5"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="6"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="6"/>
-    </row>
-    <row r="235" spans="4:7">
-      <c r="D235" s="5"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="6"/>
-      <c r="G235" s="7"/>
-    </row>
-    <row r="236" spans="4:4">
-      <c r="D236"/>
-    </row>
-    <row r="237" spans="4:4">
-      <c r="D237"/>
-    </row>
-    <row r="238" spans="4:8">
-      <c r="D238" s="5"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="6"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="6"/>
-    </row>
+    <row r="204" spans="4:8">
+      <c r="D204" s="5"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" customFormat="1"/>
+    <row r="206" customFormat="1"/>
+    <row r="207" customFormat="1" spans="4:8">
+      <c r="D207" s="5"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="211" spans="4:8">
+      <c r="D211" s="5"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="218" customFormat="1" spans="4:8">
+      <c r="D218" s="5"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="221" customFormat="1"/>
+    <row r="225" spans="4:8">
+      <c r="D225" s="5"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="230" customFormat="1" spans="4:7">
+      <c r="D230" s="5"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="7"/>
+    </row>
+    <row r="233" spans="4:8">
+      <c r="D233" s="5"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="236" customFormat="1" spans="4:7">
+      <c r="D236" s="5"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="7"/>
+    </row>
+    <row r="237" customFormat="1"/>
+    <row r="238" customFormat="1"/>
     <row r="239" spans="4:8">
       <c r="D239" s="5"/>
       <c r="E239" s="6"/>
@@ -4555,31 +4463,27 @@
       <c r="H239" s="6"/>
     </row>
     <row r="240" spans="4:8">
-      <c r="D240"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="7"/>
       <c r="H240" s="6"/>
     </row>
     <row r="241" spans="4:8">
-      <c r="D241" s="5"/>
-      <c r="E241" s="6"/>
+      <c r="D241"/>
       <c r="F241" s="6"/>
       <c r="G241" s="7"/>
       <c r="H241" s="6"/>
     </row>
-    <row r="242" spans="4:4">
-      <c r="D242"/>
-    </row>
-    <row r="243" spans="4:4">
-      <c r="D243"/>
-    </row>
-    <row r="248" spans="4:8">
-      <c r="D248" s="5"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="6"/>
-    </row>
+    <row r="242" spans="4:8">
+      <c r="D242" s="5"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" customFormat="1"/>
+    <row r="244" customFormat="1"/>
     <row r="249" spans="4:8">
       <c r="D249" s="5"/>
       <c r="E249" s="6"/>
@@ -4594,14 +4498,14 @@
       <c r="G250" s="7"/>
       <c r="H250" s="6"/>
     </row>
-    <row r="251" spans="6:8">
+    <row r="251" spans="4:8">
+      <c r="D251" s="5"/>
+      <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="7"/>
       <c r="H251" s="6"/>
     </row>
-    <row r="252" spans="4:8">
-      <c r="D252" s="5"/>
-      <c r="E252" s="6"/>
+    <row r="252" spans="6:8">
       <c r="F252" s="6"/>
       <c r="G252" s="7"/>
       <c r="H252" s="6"/>
@@ -4613,39 +4517,35 @@
       <c r="G253" s="7"/>
       <c r="H253" s="6"/>
     </row>
-    <row r="260" spans="4:8">
-      <c r="D260" s="5"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="6"/>
-      <c r="G260" s="7"/>
-      <c r="H260" s="6"/>
-    </row>
-    <row r="267" spans="4:8">
-      <c r="D267" s="5"/>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6"/>
-      <c r="G267" s="7"/>
-      <c r="H267" s="6"/>
-    </row>
-    <row r="270" customFormat="1" spans="4:7">
-      <c r="D270" s="5"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6"/>
-      <c r="G270" s="7"/>
-    </row>
-    <row r="272" spans="4:4">
-      <c r="D272"/>
-    </row>
-    <row r="273" spans="4:4">
-      <c r="D273"/>
-    </row>
-    <row r="274" spans="4:8">
-      <c r="D274" s="5"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
-      <c r="G274" s="7"/>
-      <c r="H274" s="6"/>
-    </row>
+    <row r="254" spans="4:8">
+      <c r="D254" s="5"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="7"/>
+      <c r="H254" s="6"/>
+    </row>
+    <row r="261" spans="4:8">
+      <c r="D261" s="5"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="7"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="268" spans="4:8">
+      <c r="D268" s="5"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="7"/>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="271" customFormat="1" spans="4:7">
+      <c r="D271" s="5"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="7"/>
+    </row>
+    <row r="273" customFormat="1"/>
+    <row r="274" customFormat="1"/>
     <row r="275" spans="4:8">
       <c r="D275" s="5"/>
       <c r="E275" s="6"/>
@@ -4654,32 +4554,28 @@
       <c r="H275" s="6"/>
     </row>
     <row r="276" spans="4:8">
-      <c r="D276"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="7"/>
       <c r="H276" s="6"/>
     </row>
-    <row r="277" customFormat="1" spans="4:8">
-      <c r="D277" s="5"/>
-      <c r="E277" s="6"/>
+    <row r="277" spans="4:8">
+      <c r="D277"/>
       <c r="F277" s="6"/>
       <c r="G277" s="7"/>
       <c r="H277" s="6"/>
     </row>
-    <row r="278" spans="4:4">
-      <c r="D278"/>
-    </row>
-    <row r="279" spans="4:4">
-      <c r="D279"/>
-    </row>
-    <row r="284" customFormat="1" spans="4:8">
-      <c r="D284" s="5"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="7"/>
-      <c r="H284" s="6"/>
-    </row>
-    <row r="285" spans="4:8">
+    <row r="278" customFormat="1" spans="4:8">
+      <c r="D278" s="5"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="7"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" customFormat="1"/>
+    <row r="280" customFormat="1"/>
+    <row r="285" customFormat="1" spans="4:8">
       <c r="D285" s="5"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -4693,14 +4589,14 @@
       <c r="G286" s="7"/>
       <c r="H286" s="6"/>
     </row>
-    <row r="287" spans="6:8">
+    <row r="287" spans="4:8">
+      <c r="D287" s="5"/>
+      <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="7"/>
       <c r="H287" s="6"/>
     </row>
-    <row r="288" spans="4:8">
-      <c r="D288" s="5"/>
-      <c r="E288" s="6"/>
+    <row r="288" spans="6:8">
       <c r="F288" s="6"/>
       <c r="G288" s="7"/>
       <c r="H288" s="6"/>
@@ -4712,39 +4608,35 @@
       <c r="G289" s="7"/>
       <c r="H289" s="6"/>
     </row>
-    <row r="292" customFormat="1" spans="4:7">
-      <c r="D292" s="5"/>
-      <c r="E292" s="6"/>
-      <c r="F292" s="6"/>
-      <c r="G292" s="7"/>
-    </row>
-    <row r="296" spans="4:8">
-      <c r="D296" s="5"/>
-      <c r="E296" s="6"/>
-      <c r="F296" s="6"/>
-      <c r="G296" s="7"/>
-      <c r="H296" s="6"/>
-    </row>
-    <row r="303" spans="4:8">
-      <c r="D303" s="5"/>
-      <c r="E303" s="6"/>
-      <c r="F303" s="6"/>
-      <c r="G303" s="7"/>
-      <c r="H303" s="6"/>
-    </row>
-    <row r="308" spans="4:4">
-      <c r="D308"/>
-    </row>
-    <row r="309" spans="4:4">
-      <c r="D309"/>
-    </row>
-    <row r="310" spans="4:8">
-      <c r="D310" s="5"/>
-      <c r="E310" s="6"/>
-      <c r="F310" s="6"/>
-      <c r="G310" s="7"/>
-      <c r="H310" s="6"/>
-    </row>
+    <row r="290" spans="4:8">
+      <c r="D290" s="5"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="7"/>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="293" customFormat="1" spans="4:7">
+      <c r="D293" s="5"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="7"/>
+    </row>
+    <row r="297" spans="4:8">
+      <c r="D297" s="5"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="7"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="304" spans="4:8">
+      <c r="D304" s="5"/>
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="7"/>
+      <c r="H304" s="6"/>
+    </row>
+    <row r="309" customFormat="1"/>
+    <row r="310" customFormat="1"/>
     <row r="311" spans="4:8">
       <c r="D311" s="5"/>
       <c r="E311" s="6"/>
@@ -4753,31 +4645,27 @@
       <c r="H311" s="6"/>
     </row>
     <row r="312" spans="4:8">
-      <c r="D312"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="7"/>
       <c r="H312" s="6"/>
     </row>
     <row r="313" spans="4:8">
-      <c r="D313" s="5"/>
-      <c r="E313" s="6"/>
+      <c r="D313"/>
       <c r="F313" s="6"/>
       <c r="G313" s="7"/>
       <c r="H313" s="6"/>
     </row>
-    <row r="314" spans="4:4">
-      <c r="D314"/>
-    </row>
-    <row r="315" spans="4:4">
-      <c r="D315"/>
-    </row>
-    <row r="320" spans="4:8">
-      <c r="D320" s="5"/>
-      <c r="E320" s="6"/>
-      <c r="F320" s="6"/>
-      <c r="G320" s="7"/>
-      <c r="H320" s="6"/>
-    </row>
+    <row r="314" spans="4:8">
+      <c r="D314" s="5"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="7"/>
+      <c r="H314" s="6"/>
+    </row>
+    <row r="315" customFormat="1"/>
+    <row r="316" customFormat="1"/>
     <row r="321" spans="4:8">
       <c r="D321" s="5"/>
       <c r="E321" s="6"/>
@@ -4792,14 +4680,14 @@
       <c r="G322" s="7"/>
       <c r="H322" s="6"/>
     </row>
-    <row r="323" spans="6:8">
+    <row r="323" spans="4:8">
+      <c r="D323" s="5"/>
+      <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="7"/>
       <c r="H323" s="6"/>
     </row>
-    <row r="324" spans="4:8">
-      <c r="D324" s="5"/>
-      <c r="E324" s="6"/>
+    <row r="324" spans="6:8">
       <c r="F324" s="6"/>
       <c r="G324" s="7"/>
       <c r="H324" s="6"/>
@@ -4811,191 +4699,119 @@
       <c r="G325" s="7"/>
       <c r="H325" s="6"/>
     </row>
-    <row r="332" spans="4:8">
-      <c r="D332" s="5"/>
-      <c r="E332" s="6"/>
-      <c r="F332" s="6"/>
-      <c r="G332" s="7"/>
-      <c r="H332" s="6"/>
-    </row>
-    <row r="338" spans="4:8">
-      <c r="D338" s="5"/>
-      <c r="E338" s="6"/>
-      <c r="F338" s="6"/>
-      <c r="G338" s="7"/>
-      <c r="H338" s="6"/>
-    </row>
-    <row r="342" spans="4:4">
-      <c r="D342"/>
-    </row>
-    <row r="343" spans="4:4">
-      <c r="D343"/>
-    </row>
-    <row r="344" spans="4:8">
-      <c r="D344" s="5"/>
-      <c r="E344" s="6"/>
-      <c r="F344" s="6"/>
-      <c r="G344" s="7"/>
-      <c r="H344" s="6"/>
-    </row>
-    <row r="345" spans="4:4">
-      <c r="D345"/>
-    </row>
-    <row r="346" spans="4:4">
-      <c r="D346"/>
-    </row>
-    <row r="347" spans="4:4">
-      <c r="D347"/>
-    </row>
-    <row r="348" spans="4:4">
-      <c r="D348"/>
-    </row>
-    <row r="349" spans="4:4">
-      <c r="D349"/>
-    </row>
-    <row r="350" spans="4:4">
-      <c r="D350"/>
-    </row>
-    <row r="351" spans="4:8">
-      <c r="D351" s="5"/>
-      <c r="E351" s="6"/>
-      <c r="F351" s="6"/>
-      <c r="G351" s="7"/>
-      <c r="H351" s="6"/>
-    </row>
-    <row r="352" spans="4:4">
-      <c r="D352"/>
-    </row>
-    <row r="353" spans="4:4">
-      <c r="D353"/>
-    </row>
-    <row r="355" spans="4:4">
-      <c r="D355"/>
-    </row>
-    <row r="356" spans="4:4">
-      <c r="D356"/>
-    </row>
-    <row r="357" spans="4:8">
-      <c r="D357" s="5"/>
-      <c r="E357" s="6"/>
-      <c r="F357" s="6"/>
-      <c r="G357" s="7"/>
-      <c r="H357" s="6"/>
-    </row>
-    <row r="358" spans="4:4">
-      <c r="D358"/>
-    </row>
-    <row r="359" spans="4:4">
-      <c r="D359"/>
-    </row>
-    <row r="362" spans="4:4">
-      <c r="D362"/>
-    </row>
-    <row r="363" spans="4:4">
-      <c r="D363"/>
-    </row>
-    <row r="364" spans="4:8">
-      <c r="D364" s="5"/>
-      <c r="E364" s="6"/>
-      <c r="F364" s="6"/>
-      <c r="G364" s="7"/>
-      <c r="H364" s="6"/>
-    </row>
-    <row r="365" spans="4:4">
-      <c r="D365"/>
-    </row>
-    <row r="366" spans="4:4">
-      <c r="D366"/>
-    </row>
-    <row r="371" spans="4:4">
-      <c r="D371"/>
-    </row>
-    <row r="372" spans="4:4">
-      <c r="D372"/>
-    </row>
-    <row r="373" spans="4:8">
-      <c r="D373" s="5"/>
-      <c r="E373" s="6"/>
-      <c r="F373" s="6"/>
-      <c r="G373" s="7"/>
-      <c r="H373" s="6"/>
-    </row>
-    <row r="374" spans="4:4">
-      <c r="D374"/>
-    </row>
-    <row r="375" spans="4:4">
-      <c r="D375"/>
-    </row>
-    <row r="378" spans="4:4">
-      <c r="D378"/>
-    </row>
-    <row r="379" spans="4:4">
-      <c r="D379"/>
-    </row>
-    <row r="380" spans="4:8">
-      <c r="D380" s="5"/>
-      <c r="E380" s="6"/>
-      <c r="F380" s="6"/>
-      <c r="G380" s="7"/>
-      <c r="H380" s="6"/>
-    </row>
-    <row r="381" spans="4:4">
-      <c r="D381"/>
-    </row>
-    <row r="382" spans="4:4">
-      <c r="D382"/>
-    </row>
-    <row r="385" spans="4:4">
-      <c r="D385"/>
-    </row>
-    <row r="386" spans="4:4">
-      <c r="D386"/>
-    </row>
-    <row r="387" spans="4:8">
-      <c r="D387" s="5"/>
-      <c r="E387" s="6"/>
-      <c r="F387" s="6"/>
-      <c r="G387" s="7"/>
-      <c r="H387" s="6"/>
-    </row>
-    <row r="388" spans="4:4">
-      <c r="D388"/>
-    </row>
-    <row r="389" spans="4:4">
-      <c r="D389"/>
-    </row>
-    <row r="392" spans="4:4">
-      <c r="D392"/>
-    </row>
-    <row r="393" spans="4:4">
-      <c r="D393"/>
-    </row>
-    <row r="394" spans="4:8">
-      <c r="D394" s="5"/>
-      <c r="E394" s="6"/>
-      <c r="F394" s="6"/>
-      <c r="G394" s="7"/>
-      <c r="H394" s="6"/>
-    </row>
-    <row r="395" spans="4:4">
-      <c r="D395"/>
-    </row>
-    <row r="396" spans="4:4">
-      <c r="D396"/>
-    </row>
-    <row r="398" spans="4:4">
-      <c r="D398"/>
-    </row>
-    <row r="399" spans="4:4">
-      <c r="D399"/>
-    </row>
-    <row r="400" spans="4:8">
-      <c r="D400" s="5"/>
-      <c r="E400" s="6"/>
-      <c r="F400" s="6"/>
-      <c r="G400" s="7"/>
-      <c r="H400" s="6"/>
-    </row>
+    <row r="326" spans="4:8">
+      <c r="D326" s="5"/>
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="7"/>
+      <c r="H326" s="6"/>
+    </row>
+    <row r="333" spans="4:8">
+      <c r="D333" s="5"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="7"/>
+      <c r="H333" s="6"/>
+    </row>
+    <row r="339" spans="4:8">
+      <c r="D339" s="5"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="7"/>
+      <c r="H339" s="6"/>
+    </row>
+    <row r="343" customFormat="1"/>
+    <row r="344" customFormat="1"/>
+    <row r="345" spans="4:8">
+      <c r="D345" s="5"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="7"/>
+      <c r="H345" s="6"/>
+    </row>
+    <row r="346" customFormat="1"/>
+    <row r="347" customFormat="1"/>
+    <row r="348" customFormat="1"/>
+    <row r="349" customFormat="1"/>
+    <row r="350" customFormat="1"/>
+    <row r="351" customFormat="1"/>
+    <row r="352" spans="4:8">
+      <c r="D352" s="5"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="7"/>
+      <c r="H352" s="6"/>
+    </row>
+    <row r="353" customFormat="1"/>
+    <row r="354" customFormat="1"/>
+    <row r="356" customFormat="1"/>
+    <row r="357" customFormat="1"/>
+    <row r="358" spans="4:8">
+      <c r="D358" s="5"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="7"/>
+      <c r="H358" s="6"/>
+    </row>
+    <row r="359" customFormat="1"/>
+    <row r="360" customFormat="1"/>
+    <row r="363" customFormat="1"/>
+    <row r="364" customFormat="1"/>
+    <row r="365" spans="4:8">
+      <c r="D365" s="5"/>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="7"/>
+      <c r="H365" s="6"/>
+    </row>
+    <row r="366" customFormat="1"/>
+    <row r="367" customFormat="1"/>
+    <row r="372" customFormat="1"/>
+    <row r="373" customFormat="1"/>
+    <row r="374" spans="4:8">
+      <c r="D374" s="5"/>
+      <c r="E374" s="6"/>
+      <c r="F374" s="6"/>
+      <c r="G374" s="7"/>
+      <c r="H374" s="6"/>
+    </row>
+    <row r="375" customFormat="1"/>
+    <row r="376" customFormat="1"/>
+    <row r="379" customFormat="1"/>
+    <row r="380" customFormat="1"/>
+    <row r="381" spans="4:8">
+      <c r="D381" s="5"/>
+      <c r="E381" s="6"/>
+      <c r="F381" s="6"/>
+      <c r="G381" s="7"/>
+      <c r="H381" s="6"/>
+    </row>
+    <row r="382" customFormat="1"/>
+    <row r="383" customFormat="1"/>
+    <row r="386" customFormat="1"/>
+    <row r="387" customFormat="1"/>
+    <row r="388" spans="4:8">
+      <c r="D388" s="5"/>
+      <c r="E388" s="6"/>
+      <c r="F388" s="6"/>
+      <c r="G388" s="7"/>
+      <c r="H388" s="6"/>
+    </row>
+    <row r="389" customFormat="1"/>
+    <row r="390" customFormat="1"/>
+    <row r="393" customFormat="1"/>
+    <row r="394" customFormat="1"/>
+    <row r="395" spans="4:8">
+      <c r="D395" s="5"/>
+      <c r="E395" s="6"/>
+      <c r="F395" s="6"/>
+      <c r="G395" s="7"/>
+      <c r="H395" s="6"/>
+    </row>
+    <row r="396" customFormat="1"/>
+    <row r="397" customFormat="1"/>
+    <row r="399" customFormat="1"/>
+    <row r="400" customFormat="1"/>
     <row r="401" spans="4:8">
       <c r="D401" s="5"/>
       <c r="E401" s="6"/>
@@ -5004,81 +4820,60 @@
       <c r="H401" s="6"/>
     </row>
     <row r="402" spans="4:8">
-      <c r="D402"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" s="7"/>
       <c r="H402" s="6"/>
     </row>
     <row r="403" spans="4:8">
-      <c r="D403" s="5"/>
-      <c r="E403" s="6"/>
+      <c r="D403"/>
       <c r="F403" s="6"/>
       <c r="G403" s="7"/>
       <c r="H403" s="6"/>
     </row>
-    <row r="404" spans="4:4">
-      <c r="D404"/>
-    </row>
-    <row r="405" spans="4:4">
-      <c r="D405"/>
-    </row>
-    <row r="407" spans="4:4">
-      <c r="D407"/>
-    </row>
-    <row r="408" spans="4:4">
-      <c r="D408"/>
-    </row>
-    <row r="409" spans="4:8">
-      <c r="D409" s="5"/>
-      <c r="E409" s="6"/>
-      <c r="F409" s="6"/>
-      <c r="G409" s="7"/>
-      <c r="H409" s="6"/>
-    </row>
-    <row r="410" spans="4:4">
-      <c r="D410"/>
-    </row>
-    <row r="411" spans="4:4">
-      <c r="D411"/>
-    </row>
-    <row r="416" spans="4:4">
-      <c r="D416"/>
-    </row>
-    <row r="417" spans="4:4">
-      <c r="D417"/>
-    </row>
-    <row r="418" spans="4:8">
-      <c r="D418" s="5"/>
-      <c r="E418" s="6"/>
-      <c r="F418" s="6"/>
-      <c r="G418" s="7"/>
-      <c r="H418" s="6"/>
-    </row>
-    <row r="419" spans="4:4">
-      <c r="D419"/>
-    </row>
-    <row r="420" spans="4:4">
-      <c r="D420"/>
-    </row>
-    <row r="423" spans="4:4">
-      <c r="D423"/>
-    </row>
-    <row r="424" spans="4:4">
-      <c r="D424"/>
-    </row>
-    <row r="425" spans="4:8">
-      <c r="D425" s="5"/>
-      <c r="E425" s="6"/>
-      <c r="F425" s="6"/>
-      <c r="G425" s="7"/>
-      <c r="H425" s="6"/>
-    </row>
-    <row r="426" spans="4:4">
-      <c r="D426"/>
-    </row>
-    <row r="427" spans="4:4">
-      <c r="D427"/>
-    </row>
+    <row r="404" spans="4:8">
+      <c r="D404" s="5"/>
+      <c r="E404" s="6"/>
+      <c r="F404" s="6"/>
+      <c r="G404" s="7"/>
+      <c r="H404" s="6"/>
+    </row>
+    <row r="405" customFormat="1"/>
+    <row r="406" customFormat="1"/>
+    <row r="408" customFormat="1"/>
+    <row r="409" customFormat="1"/>
+    <row r="410" spans="4:8">
+      <c r="D410" s="5"/>
+      <c r="E410" s="6"/>
+      <c r="F410" s="6"/>
+      <c r="G410" s="7"/>
+      <c r="H410" s="6"/>
+    </row>
+    <row r="411" customFormat="1"/>
+    <row r="412" customFormat="1"/>
+    <row r="417" customFormat="1"/>
+    <row r="418" customFormat="1"/>
+    <row r="419" spans="4:8">
+      <c r="D419" s="5"/>
+      <c r="E419" s="6"/>
+      <c r="F419" s="6"/>
+      <c r="G419" s="7"/>
+      <c r="H419" s="6"/>
+    </row>
+    <row r="420" customFormat="1"/>
+    <row r="421" customFormat="1"/>
+    <row r="424" customFormat="1"/>
+    <row r="425" customFormat="1"/>
+    <row r="426" spans="4:8">
+      <c r="D426" s="5"/>
+      <c r="E426" s="6"/>
+      <c r="F426" s="6"/>
+      <c r="G426" s="7"/>
+      <c r="H426" s="6"/>
+    </row>
+    <row r="427" customFormat="1"/>
+    <row r="428" customFormat="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
@@ -5090,21 +4885,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="40.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="22.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="19.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="30.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="27.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="31.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="37.1428571428571" customWidth="1"/>
     <col min="11" max="11" width="17.8571428571429" customWidth="1"/>
     <col min="12" max="12" width="13.7142857142857" customWidth="1"/>
     <col min="13" max="13" width="19.1428571428571" customWidth="1"/>
@@ -5125,7 +4920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -5144,404 +4939,347 @@
       <c r="F2" t="s">
         <v>150</v>
       </c>
-      <c r="G2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
         <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
         <v>156</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
         <v>156</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F9" t="s">
         <v>157</v>
       </c>
-      <c r="F7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:7">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
         <v>160</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>160</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
         <v>157</v>
       </c>
-      <c r="F8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:7">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
         <v>161</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>161</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
         <v>157</v>
       </c>
-      <c r="F9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
         <v>162</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>162</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" t="s">
         <v>157</v>
       </c>
-      <c r="F10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
         <v>163</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>163</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" t="s">
         <v>157</v>
       </c>
-      <c r="F11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
         <v>164</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>164</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" t="s">
         <v>157</v>
       </c>
-      <c r="F12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
         <v>165</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>165</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
         <v>157</v>
       </c>
-      <c r="F13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="17" customFormat="1" spans="1:6">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
         <v>166</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>166</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" t="s">
         <v>157</v>
       </c>
-      <c r="F14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="18" customFormat="1" spans="1:6">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
         <v>167</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
         <v>167</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" t="s">
         <v>157</v>
       </c>
-      <c r="F15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
         <v>168</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>168</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="s">
         <v>157</v>
       </c>
-      <c r="F16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="20" customFormat="1" spans="1:6">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
         <v>169</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>169</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" t="s">
         <v>157</v>
       </c>
-      <c r="F17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="21" customFormat="1" spans="1:6">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
         <v>170</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>170</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" t="s">
         <v>157</v>
       </c>
-      <c r="F18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="22" customFormat="1" spans="1:6">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
         <v>171</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>171</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
         <v>157</v>
       </c>
-      <c r="F19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:7">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="23" customFormat="1" spans="1:6">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
         <v>172</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
         <v>172</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" t="s">
         <v>157</v>
       </c>
-      <c r="F20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="24" customFormat="1" spans="1:6">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
         <v>173</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>173</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
         <v>157</v>
       </c>
-      <c r="F21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:7">
-      <c r="A22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1" spans="1:6">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
         <v>174</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D27" t="s">
         <v>174</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" t="s">
         <v>157</v>
       </c>
-      <c r="F22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:7">
-      <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="28" customFormat="1" spans="1:6">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
         <v>175</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>175</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
         <v>157</v>
-      </c>
-      <c r="F23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:7">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:7">
-      <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5570,10 +5308,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5623,22 +5361,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5675,16 +5413,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
         <v>185</v>
       </c>
-      <c r="D1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" t="s">
-        <v>187</v>
-      </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5715,10 +5453,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -5739,4 +5477,36 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>